--- a/testCase/sqszyyadmin/appraiseManage.xlsx
+++ b/testCase/sqszyyadmin/appraiseManage.xlsx
@@ -33,22 +33,25 @@
     <t>appraiseDesc</t>
   </si>
   <si>
-    <t>新增评价问卷成功</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>睿博医院评价</t>
   </si>
   <si>
-    <t>搜索评价问卷成功</t>
+    <t>睿博就医评价</t>
   </si>
   <si>
-    <t>编辑评价问卷成功</t>
+    <t>编辑评价问卷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>睿博就医评价</t>
+    <t>新增评价问卷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索评价问卷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1033,20 +1036,20 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1085,18 +1088,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1113,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1140,19 +1143,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/appraiseManage.xlsx
+++ b/testCase/sqszyyadmin/appraiseManage.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="insertAppraise" sheetId="1" r:id="rId1"/>
     <sheet name="searchAppraise" sheetId="2" r:id="rId2"/>
     <sheet name="updateAppraise" sheetId="3" r:id="rId3"/>
+    <sheet name="deleteAppraise" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>caseName</t>
   </si>
@@ -40,17 +41,29 @@
   </si>
   <si>
     <t>睿博就医评价</t>
+  </si>
+  <si>
+    <t>新增评价问卷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索评价问卷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>编辑评价问卷</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>新增评价问卷</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索评价问卷</t>
+    <t>删除评价问卷</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1004,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1037,7 +1050,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1064,7 +1077,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1090,16 +1103,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1112,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1143,7 +1156,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -1156,6 +1169,53 @@
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/appraiseManage.xlsx
+++ b/testCase/sqszyyadmin/appraiseManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="insertAppraise" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>caseName</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>睿博医院评价</t>
-  </si>
-  <si>
-    <t>睿博就医评价</t>
   </si>
   <si>
     <t>新增评价问卷</t>
@@ -64,6 +58,22 @@
   </si>
   <si>
     <t>删除评价问卷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博医院评价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博医院评价说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博医院评价（改）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博医院评价说明（改）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,9 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1017,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1026,7 +1033,7 @@
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
@@ -1049,20 +1056,20 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1088,31 +1095,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1125,50 +1132,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1189,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1193,29 +1200,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
